--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="12020" windowWidth="38440" windowHeight="20160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="38400" windowHeight="20160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Kelly" sheetId="4" r:id="rId1"/>
@@ -323,12 +323,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -342,19 +336,21 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -366,8 +362,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -376,7 +376,7 @@
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -434,246 +434,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -952,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U12" sqref="A1:U12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -964,144 +724,144 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="9">
+      <c r="B1" s="24">
         <v>1213</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24">
         <v>1314</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24">
         <v>1415</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24">
         <v>1516</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24">
         <v>1617</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="24">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24">
         <v>0</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24">
         <v>0</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10">
+      <c r="K2" s="24"/>
+      <c r="L2" s="23">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23">
         <v>0</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23">
         <v>0</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10">
-        <v>1</v>
-      </c>
-      <c r="U2" s="10"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23">
+        <v>1</v>
+      </c>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
         <v>2</v>
       </c>
-      <c r="R3" s="12">
-        <v>1</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="T3" s="12">
-        <v>1</v>
-      </c>
-      <c r="U3" s="12">
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -1109,64 +869,64 @@
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>-0.89910000000000001</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="14">
         <v>-0.89910000000000001</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>-0.60019999999999996</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="16">
         <v>-0.60019999999999996</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <v>0.2324</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.2324</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>-0.20119999999999999</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="16">
         <v>-0.20119999999999999</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <v>-0.38030000000000003</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <v>-0.95520000000000005</v>
       </c>
-      <c r="L4" s="17">
+      <c r="L4" s="15">
         <v>0.2823</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="16">
         <v>0.36499999999999999</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="15">
         <v>-0.99539999999999995</v>
       </c>
-      <c r="O4" s="16">
+      <c r="O4" s="14">
         <v>-0.99990000000000001</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="15">
         <v>-0.50039999999999996</v>
       </c>
-      <c r="Q4" s="18">
+      <c r="Q4" s="16">
         <v>-0.35980000000000001</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="17">
         <v>-0.9879</v>
       </c>
-      <c r="S4" s="16">
+      <c r="S4" s="14">
         <v>-0.99670000000000003</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="15">
         <v>-0.82479999999999998</v>
       </c>
-      <c r="U4" s="16">
+      <c r="U4" s="14">
         <v>-0.60019999999999996</v>
       </c>
     </row>
@@ -1174,7 +934,7 @@
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="18">
         <v>-0.92879999999999996</v>
       </c>
       <c r="C5" s="6">
@@ -1183,7 +943,7 @@
       <c r="D5" s="4">
         <v>-0.67079999999999995</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="12">
         <v>-0.36720000000000003</v>
       </c>
       <c r="F5" s="4">
@@ -1195,7 +955,7 @@
       <c r="H5" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="12">
         <v>0.20499999999999999</v>
       </c>
       <c r="J5" s="4">
@@ -1207,7 +967,7 @@
       <c r="L5" s="4">
         <v>-0.2467</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="12">
         <v>-0.32469999999999999</v>
       </c>
       <c r="N5" s="4">
@@ -1219,7 +979,7 @@
       <c r="P5" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="Q5" s="14">
+      <c r="Q5" s="12">
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="R5" s="4">
@@ -1239,7 +999,7 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="18">
         <v>-0.25230000000000002</v>
       </c>
       <c r="C6" s="6">
@@ -1248,7 +1008,7 @@
       <c r="D6" s="4">
         <v>-0.17419999999999999</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <v>-0.26340000000000002</v>
       </c>
       <c r="F6" s="4">
@@ -1260,7 +1020,7 @@
       <c r="H6" s="4">
         <v>0.16450000000000001</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="12">
         <v>0.55189999999999995</v>
       </c>
       <c r="J6" s="4">
@@ -1272,7 +1032,7 @@
       <c r="L6" s="4">
         <v>0.60740000000000005</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="12">
         <v>0.67910000000000004</v>
       </c>
       <c r="N6" s="4">
@@ -1284,7 +1044,7 @@
       <c r="P6" s="4">
         <v>-0.33660000000000001</v>
       </c>
-      <c r="Q6" s="14">
+      <c r="Q6" s="12">
         <v>-0.46550000000000002</v>
       </c>
       <c r="R6" s="4">
@@ -1304,7 +1064,7 @@
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="18">
         <v>-0.70709999999999995</v>
       </c>
       <c r="C7" s="6">
@@ -1313,7 +1073,7 @@
       <c r="D7" s="4">
         <v>-0.65500000000000003</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="12">
         <v>-0.54890000000000005</v>
       </c>
       <c r="F7" s="4">
@@ -1325,7 +1085,7 @@
       <c r="H7" s="4">
         <v>0.24610000000000001</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="12">
         <v>0.14560000000000001</v>
       </c>
       <c r="J7" s="4">
@@ -1337,7 +1097,7 @@
       <c r="L7" s="4">
         <v>0.90539999999999998</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="12">
         <v>0.63260000000000005</v>
       </c>
       <c r="N7" s="4">
@@ -1349,7 +1109,7 @@
       <c r="P7" s="4">
         <v>0.32140000000000002</v>
       </c>
-      <c r="Q7" s="14">
+      <c r="Q7" s="12">
         <v>0.42180000000000001</v>
       </c>
       <c r="R7" s="4">
@@ -1369,7 +1129,7 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="18">
         <v>-0.98660000000000003</v>
       </c>
       <c r="C8" s="6">
@@ -1378,7 +1138,7 @@
       <c r="D8" s="4">
         <v>-0.56330000000000002</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="12">
         <v>-0.40670000000000001</v>
       </c>
       <c r="F8" s="4">
@@ -1390,7 +1150,7 @@
       <c r="H8" s="4">
         <v>-0.1033</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <v>-5.2200000000000003E-2</v>
       </c>
       <c r="J8" s="4">
@@ -1402,7 +1162,7 @@
       <c r="L8" s="4">
         <v>-0.35249999999999998</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="12">
         <v>-0.59719999999999995</v>
       </c>
       <c r="N8" s="4">
@@ -1414,7 +1174,7 @@
       <c r="P8" s="4">
         <v>0.34239999999999998</v>
       </c>
-      <c r="Q8" s="14">
+      <c r="Q8" s="12">
         <v>0.22639999999999999</v>
       </c>
       <c r="R8" s="4">
@@ -1434,7 +1194,7 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="18">
         <v>0.68520000000000003</v>
       </c>
       <c r="C9" s="6">
@@ -1443,7 +1203,7 @@
       <c r="D9" s="4">
         <v>-9.2600000000000002E-2</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="12">
         <v>0.17730000000000001</v>
       </c>
       <c r="F9" s="4">
@@ -1455,7 +1215,7 @@
       <c r="H9" s="4">
         <v>-0.26269999999999999</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="12">
         <v>-0.52229999999999999</v>
       </c>
       <c r="J9" s="4">
@@ -1467,7 +1227,7 @@
       <c r="L9" s="4">
         <v>0.39529999999999998</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="12">
         <v>-0.1069</v>
       </c>
       <c r="N9" s="4">
@@ -1479,7 +1239,7 @@
       <c r="P9" s="4">
         <v>-0.19639999999999999</v>
       </c>
-      <c r="Q9" s="14">
+      <c r="Q9" s="12">
         <v>0.30809999999999998</v>
       </c>
       <c r="R9" s="4">
@@ -1499,7 +1259,7 @@
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="18">
         <v>-0.26950000000000002</v>
       </c>
       <c r="C10" s="6">
@@ -1508,7 +1268,7 @@
       <c r="D10" s="4">
         <v>-6.3E-2</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="12">
         <v>-0.23230000000000001</v>
       </c>
       <c r="F10" s="4">
@@ -1520,7 +1280,7 @@
       <c r="H10" s="4">
         <v>-0.34949999999999998</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <v>-0.51390000000000002</v>
       </c>
       <c r="J10" s="4">
@@ -1532,7 +1292,7 @@
       <c r="L10" s="4">
         <v>0.1283</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="12">
         <v>0.1283</v>
       </c>
       <c r="N10" s="4">
@@ -1544,7 +1304,7 @@
       <c r="P10" s="4">
         <v>-0.23960000000000001</v>
       </c>
-      <c r="Q10" s="14">
+      <c r="Q10" s="12">
         <v>-0.29110000000000003</v>
       </c>
       <c r="R10" s="4">
@@ -1564,7 +1324,7 @@
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="19">
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="C11" s="7">
@@ -1573,7 +1333,7 @@
       <c r="D11" s="5">
         <v>0.40610000000000002</v>
       </c>
-      <c r="E11" s="22">
+      <c r="E11" s="20">
         <v>0.40460000000000002</v>
       </c>
       <c r="F11" s="5">
@@ -1585,7 +1345,7 @@
       <c r="H11" s="5">
         <v>0.1285</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="20">
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="J11" s="5">
@@ -1597,7 +1357,7 @@
       <c r="L11" s="5">
         <v>-0.60250000000000004</v>
       </c>
-      <c r="M11" s="22">
+      <c r="M11" s="20">
         <v>-6.9400000000000003E-2</v>
       </c>
       <c r="N11" s="5">
@@ -1609,7 +1369,7 @@
       <c r="P11" s="5">
         <v>0.79920000000000002</v>
       </c>
-      <c r="Q11" s="22">
+      <c r="Q11" s="20">
         <v>0.72</v>
       </c>
       <c r="R11" s="5">
@@ -1629,7 +1389,7 @@
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>-0.40749999999999997</v>
       </c>
       <c r="C12" s="6">
@@ -1638,7 +1398,7 @@
       <c r="D12" s="4">
         <v>-0.30159999999999998</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="12">
         <v>-0.2296</v>
       </c>
       <c r="F12" s="4">
@@ -1650,7 +1410,7 @@
       <c r="H12" s="4">
         <v>-4.19E-2</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <v>-4.3099999999999999E-2</v>
       </c>
       <c r="J12" s="4">
@@ -1662,7 +1422,7 @@
       <c r="L12" s="4">
         <v>0.1396</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="12">
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="N12" s="4">
@@ -1674,7 +1434,7 @@
       <c r="P12" s="4">
         <v>4.19E-2</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="12">
         <v>7.9899999999999999E-2</v>
       </c>
       <c r="R12" s="4">
@@ -1692,65 +1452,65 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="9">
+      <c r="B19" s="24">
         <v>1213</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="24">
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="32">
         <v>1314</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24">
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32">
         <v>1415</v>
       </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="24">
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="32">
         <v>1516</v>
       </c>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="23"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="31"/>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27" t="s">
+      <c r="I20" s="27"/>
+      <c r="J20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25" t="s">
+      <c r="K20" s="26"/>
+      <c r="L20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27" t="s">
+      <c r="M20" s="27"/>
+      <c r="N20" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25" t="s">
+      <c r="O20" s="26"/>
+      <c r="P20" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="Q20" s="26"/>
+      <c r="Q20" s="27"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
@@ -2086,265 +1846,265 @@
       <c r="Q29" s="29"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
-      <c r="B35" s="9">
+      <c r="B35" s="24">
         <v>1213</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24">
         <v>1314</v>
       </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9">
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24">
         <v>1415</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9">
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24">
         <v>1516</v>
       </c>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9">
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24">
         <v>1617</v>
       </c>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="31"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="21"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="9">
+      <c r="B36" s="24">
         <v>0</v>
       </c>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9">
+      <c r="C36" s="24"/>
+      <c r="D36" s="24">
+        <v>1</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24">
         <v>0</v>
       </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9">
-        <v>1</v>
-      </c>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9">
+      <c r="G36" s="24"/>
+      <c r="H36" s="24">
+        <v>1</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24">
         <v>0</v>
       </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="10">
-        <v>1</v>
-      </c>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10">
+      <c r="K36" s="24"/>
+      <c r="L36" s="23">
+        <v>1</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="23">
         <v>0</v>
       </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10">
+      <c r="O36" s="23"/>
+      <c r="P36" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23">
         <v>0</v>
       </c>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10">
-        <v>1</v>
-      </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="31"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23">
+        <v>1</v>
+      </c>
+      <c r="U36" s="23"/>
+      <c r="V36" s="21"/>
     </row>
     <row r="37" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="11">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11">
+      <c r="B37" s="9">
+        <v>1</v>
+      </c>
+      <c r="C37" s="9">
         <v>2</v>
       </c>
-      <c r="D37" s="11">
-        <v>1</v>
-      </c>
-      <c r="E37" s="11">
+      <c r="D37" s="9">
+        <v>1</v>
+      </c>
+      <c r="E37" s="9">
         <v>2</v>
       </c>
-      <c r="F37" s="11">
-        <v>1</v>
-      </c>
-      <c r="G37" s="11">
+      <c r="F37" s="9">
+        <v>1</v>
+      </c>
+      <c r="G37" s="9">
         <v>2</v>
       </c>
-      <c r="H37" s="11">
-        <v>1</v>
-      </c>
-      <c r="I37" s="11">
+      <c r="H37" s="9">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9">
         <v>2</v>
       </c>
-      <c r="J37" s="11">
-        <v>1</v>
-      </c>
-      <c r="K37" s="11">
+      <c r="J37" s="9">
+        <v>1</v>
+      </c>
+      <c r="K37" s="9">
         <v>2</v>
       </c>
-      <c r="L37" s="12">
-        <v>1</v>
-      </c>
-      <c r="M37" s="12">
+      <c r="L37" s="10">
+        <v>1</v>
+      </c>
+      <c r="M37" s="10">
         <v>2</v>
       </c>
-      <c r="N37" s="12">
-        <v>1</v>
-      </c>
-      <c r="O37" s="12">
+      <c r="N37" s="10">
+        <v>1</v>
+      </c>
+      <c r="O37" s="10">
         <v>2</v>
       </c>
-      <c r="P37" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="12">
+      <c r="P37" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="10">
         <v>2</v>
       </c>
-      <c r="R37" s="12">
-        <v>1</v>
-      </c>
-      <c r="S37" s="12">
+      <c r="R37" s="10">
+        <v>1</v>
+      </c>
+      <c r="S37" s="10">
         <v>2</v>
       </c>
-      <c r="T37" s="12">
-        <v>1</v>
-      </c>
-      <c r="U37" s="12">
+      <c r="T37" s="10">
+        <v>1</v>
+      </c>
+      <c r="U37" s="10">
         <v>2</v>
       </c>
-      <c r="V37" s="31"/>
+      <c r="V37" s="21"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17">
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15">
         <v>0.2324</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G38" s="14">
         <v>0.2324</v>
       </c>
-      <c r="H38" s="17"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="17"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="17">
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15">
         <v>0.2823</v>
       </c>
-      <c r="M38" s="18">
+      <c r="M38" s="16">
         <v>0.36499999999999999</v>
       </c>
-      <c r="N38" s="17"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="19"/>
-      <c r="S38" s="16"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="16"/>
-      <c r="V38" s="31"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="15"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="21"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B39" s="20"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="6"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="12"/>
       <c r="F39" s="4">
         <v>0.49120000000000003</v>
       </c>
@@ -2354,35 +2114,35 @@
       <c r="H39" s="4">
         <v>4.2200000000000001E-2</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="12">
         <v>0.20499999999999999</v>
       </c>
       <c r="J39" s="4"/>
       <c r="K39" s="6"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="14"/>
+      <c r="M39" s="12"/>
       <c r="N39" s="4"/>
       <c r="O39" s="6"/>
       <c r="P39" s="4">
         <v>0.14499999999999999</v>
       </c>
-      <c r="Q39" s="14">
+      <c r="Q39" s="12">
         <v>7.9500000000000001E-2</v>
       </c>
       <c r="R39" s="4"/>
       <c r="S39" s="6"/>
       <c r="T39" s="4"/>
       <c r="U39" s="6"/>
-      <c r="V39" s="31"/>
+      <c r="V39" s="21"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B40" s="20"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="12"/>
       <c r="F40" s="4">
         <v>2.2498999999999998</v>
       </c>
@@ -2392,7 +2152,7 @@
       <c r="H40" s="4">
         <v>0.16450000000000001</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="12">
         <v>0.55189999999999995</v>
       </c>
       <c r="J40" s="4">
@@ -2402,7 +2162,7 @@
       <c r="L40" s="4">
         <v>0.60740000000000005</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="12">
         <v>0.67910000000000004</v>
       </c>
       <c r="N40" s="4">
@@ -2412,7 +2172,7 @@
         <v>3.3536999999999999</v>
       </c>
       <c r="P40" s="4"/>
-      <c r="Q40" s="14"/>
+      <c r="Q40" s="12"/>
       <c r="R40" s="4">
         <v>3.2899999999999999E-2</v>
       </c>
@@ -2425,22 +2185,22 @@
       <c r="U40" s="6">
         <v>9.5100000000000004E-2</v>
       </c>
-      <c r="V40" s="31"/>
+      <c r="V40" s="21"/>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="20"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="6"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="14"/>
+      <c r="E41" s="12"/>
       <c r="F41" s="4"/>
       <c r="G41" s="6"/>
       <c r="H41" s="4">
         <v>0.24610000000000001</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="12">
         <v>0.14560000000000001</v>
       </c>
       <c r="J41" s="4"/>
@@ -2448,7 +2208,7 @@
       <c r="L41" s="4">
         <v>0.90539999999999998</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="12">
         <v>0.63260000000000005</v>
       </c>
       <c r="N41" s="4"/>
@@ -2456,7 +2216,7 @@
       <c r="P41" s="4">
         <v>0.32140000000000002</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="12">
         <v>0.42180000000000001</v>
       </c>
       <c r="R41" s="4"/>
@@ -2465,24 +2225,24 @@
       <c r="U41" s="6">
         <v>0.29980000000000001</v>
       </c>
-      <c r="V41" s="31"/>
+      <c r="V41" s="21"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="14"/>
+      <c r="E42" s="12"/>
       <c r="F42" s="4"/>
       <c r="G42" s="6"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="12"/>
       <c r="J42" s="4"/>
       <c r="K42" s="6"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="14"/>
+      <c r="M42" s="12"/>
       <c r="N42" s="4">
         <v>0.17810000000000001</v>
       </c>
@@ -2490,33 +2250,33 @@
       <c r="P42" s="4">
         <v>0.34239999999999998</v>
       </c>
-      <c r="Q42" s="14">
+      <c r="Q42" s="12">
         <v>0.22639999999999999</v>
       </c>
       <c r="R42" s="4"/>
       <c r="S42" s="6"/>
       <c r="T42" s="4"/>
       <c r="U42" s="6"/>
-      <c r="V42" s="31"/>
+      <c r="V42" s="21"/>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="20">
+      <c r="B43" s="18">
         <v>0.68520000000000003</v>
       </c>
       <c r="C43" s="6">
         <v>1.3733</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43" s="14">
+      <c r="E43" s="12">
         <v>0.17730000000000001</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="6"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="12"/>
       <c r="J43" s="4">
         <v>0.34010000000000001</v>
       </c>
@@ -2524,7 +2284,7 @@
       <c r="L43" s="4">
         <v>0.39529999999999998</v>
       </c>
-      <c r="M43" s="14"/>
+      <c r="M43" s="12"/>
       <c r="N43" s="4">
         <v>8.1454000000000004</v>
       </c>
@@ -2532,7 +2292,7 @@
         <v>16.852699999999999</v>
       </c>
       <c r="P43" s="4"/>
-      <c r="Q43" s="14">
+      <c r="Q43" s="12">
         <v>0.30809999999999998</v>
       </c>
       <c r="R43" s="4"/>
@@ -2543,22 +2303,22 @@
       <c r="U43" s="6">
         <v>0.4244</v>
       </c>
-      <c r="V43" s="31"/>
+      <c r="V43" s="21"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B44" s="20"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="6">
         <v>0.32429999999999998</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4"/>
       <c r="G44" s="6"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="12"/>
       <c r="J44" s="4">
         <v>0.28000000000000003</v>
       </c>
@@ -2568,7 +2328,7 @@
       <c r="L44" s="4">
         <v>0.1283</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="12">
         <v>0.1283</v>
       </c>
       <c r="N44" s="4">
@@ -2578,7 +2338,7 @@
         <v>0.20549999999999999</v>
       </c>
       <c r="P44" s="4"/>
-      <c r="Q44" s="14"/>
+      <c r="Q44" s="12"/>
       <c r="R44" s="4"/>
       <c r="S44" s="6"/>
       <c r="T44" s="4">
@@ -2587,20 +2347,20 @@
       <c r="U44" s="6">
         <v>0.28810000000000002</v>
       </c>
-      <c r="V44" s="31"/>
+      <c r="V44" s="21"/>
     </row>
     <row r="45" spans="1:22" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B45" s="21">
+      <c r="B45" s="19">
         <v>9.8299999999999998E-2</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="5">
         <v>0.40610000000000002</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="20">
         <v>0.40460000000000002</v>
       </c>
       <c r="F45" s="5"/>
@@ -2608,13 +2368,13 @@
       <c r="H45" s="5">
         <v>0.1285</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="20">
         <v>4.2200000000000001E-2</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="7"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="22"/>
+      <c r="M45" s="20"/>
       <c r="N45" s="5">
         <v>2.0991</v>
       </c>
@@ -2624,7 +2384,7 @@
       <c r="P45" s="5">
         <v>0.79920000000000002</v>
       </c>
-      <c r="Q45" s="22">
+      <c r="Q45" s="20">
         <v>0.72</v>
       </c>
       <c r="R45" s="5"/>
@@ -2635,13 +2395,13 @@
       <c r="U45" s="7">
         <v>0.1081</v>
       </c>
-      <c r="V45" s="31"/>
+      <c r="V45" s="21"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>-0.40749999999999997</v>
       </c>
       <c r="C46" s="6">
@@ -2650,7 +2410,7 @@
       <c r="D46" s="4">
         <v>-0.30159999999999998</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="12">
         <v>-0.2296</v>
       </c>
       <c r="F46" s="4">
@@ -2662,7 +2422,7 @@
       <c r="H46" s="4">
         <v>-4.19E-2</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="12">
         <v>-4.3099999999999999E-2</v>
       </c>
       <c r="J46" s="4">
@@ -2674,7 +2434,7 @@
       <c r="L46" s="4">
         <v>0.1396</v>
       </c>
-      <c r="M46" s="14">
+      <c r="M46" s="12">
         <v>8.8300000000000003E-2</v>
       </c>
       <c r="N46" s="4">
@@ -2686,7 +2446,7 @@
       <c r="P46" s="4">
         <v>4.19E-2</v>
       </c>
-      <c r="Q46" s="14">
+      <c r="Q46" s="12">
         <v>7.9899999999999999E-2</v>
       </c>
       <c r="R46" s="4">
@@ -2701,356 +2461,426 @@
       <c r="U46" s="6">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="V46" s="31"/>
+      <c r="V46" s="21"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+      <c r="V47" s="21"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="21"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+      <c r="V48" s="21"/>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="32"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="21"/>
+      <c r="H50" s="21"/>
+      <c r="I50" s="21"/>
+      <c r="J50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+      <c r="V50" s="21"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="21"/>
+      <c r="I51" s="21"/>
+      <c r="J51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+      <c r="V51" s="21"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="31"/>
-      <c r="M52" s="31"/>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="31"/>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="21"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
-      <c r="K53" s="31"/>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="31"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="21"/>
+      <c r="H54" s="21"/>
+      <c r="I54" s="21"/>
+      <c r="J54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="21"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="21"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="21"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A55" s="31"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
-      <c r="K55" s="31"/>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="21"/>
+      <c r="I55" s="21"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="21"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A56" s="31"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
-      <c r="K56" s="31"/>
-      <c r="L56" s="31"/>
-      <c r="M56" s="31"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="21"/>
+      <c r="H56" s="21"/>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="21"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A57" s="31"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="21"/>
+      <c r="H57" s="21"/>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+      <c r="O57" s="21"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="21"/>
+      <c r="U57" s="21"/>
+      <c r="V57" s="21"/>
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A58" s="31"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
-      <c r="K58" s="31"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A59" s="31"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
-      <c r="K59" s="31"/>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="21"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="21"/>
+      <c r="G59" s="21"/>
+      <c r="H59" s="21"/>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+      <c r="O59" s="21"/>
+      <c r="P59" s="21"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="21"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="21"/>
+      <c r="U59" s="21"/>
+      <c r="V59" s="21"/>
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A60" s="31"/>
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
-      <c r="K60" s="31"/>
-      <c r="L60" s="31"/>
-      <c r="M60" s="31"/>
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="21"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="21"/>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="21"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="21"/>
+      <c r="U60" s="21"/>
+      <c r="V60" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:Q36"/>
-    <mergeCell ref="R36:S36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="N27:O27"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="F35:I35"/>
     <mergeCell ref="J35:M35"/>
@@ -3075,100 +2905,30 @@
     <mergeCell ref="N28:O28"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="N19:Q19"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:Q36"/>
+    <mergeCell ref="R36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="L36:M36"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:U12">
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:U46 T49">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3180,7 +2940,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -3188,144 +2948,144 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="9">
+      <c r="B1" s="24">
         <v>1213</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24">
         <v>1314</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24">
         <v>1415</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24">
         <v>1516</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9">
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24">
         <v>1617</v>
       </c>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="24">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9">
-        <v>1</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24">
+        <v>1</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24">
         <v>0</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9">
-        <v>1</v>
-      </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9">
+      <c r="G2" s="24"/>
+      <c r="H2" s="24">
+        <v>1</v>
+      </c>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24">
         <v>0</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="10">
-        <v>1</v>
-      </c>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10">
+      <c r="K2" s="24"/>
+      <c r="L2" s="23">
+        <v>1</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23">
         <v>0</v>
       </c>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23">
         <v>0</v>
       </c>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10">
-        <v>1</v>
-      </c>
-      <c r="U2" s="10"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23">
+        <v>1</v>
+      </c>
+      <c r="U2" s="23"/>
     </row>
     <row r="3" spans="1:21" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
-      </c>
-      <c r="C3" s="11">
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
-        <v>1</v>
-      </c>
-      <c r="E3" s="11">
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
         <v>2</v>
       </c>
-      <c r="F3" s="11">
-        <v>1</v>
-      </c>
-      <c r="G3" s="11">
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9">
         <v>2</v>
       </c>
-      <c r="H3" s="11">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11">
+      <c r="H3" s="9">
+        <v>1</v>
+      </c>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="J3" s="11">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="9">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9">
         <v>2</v>
       </c>
-      <c r="L3" s="12">
-        <v>1</v>
-      </c>
-      <c r="M3" s="12">
+      <c r="L3" s="10">
+        <v>1</v>
+      </c>
+      <c r="M3" s="10">
         <v>2</v>
       </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
-      <c r="O3" s="12">
+      <c r="N3" s="10">
+        <v>1</v>
+      </c>
+      <c r="O3" s="10">
         <v>2</v>
       </c>
-      <c r="P3" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="12">
+      <c r="P3" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="10">
         <v>2</v>
       </c>
-      <c r="R3" s="12">
-        <v>1</v>
-      </c>
-      <c r="S3" s="12">
+      <c r="R3" s="10">
+        <v>1</v>
+      </c>
+      <c r="S3" s="10">
         <v>2</v>
       </c>
-      <c r="T3" s="12">
-        <v>1</v>
-      </c>
-      <c r="U3" s="12">
+      <c r="T3" s="10">
+        <v>1</v>
+      </c>
+      <c r="U3" s="10">
         <v>2</v>
       </c>
     </row>
@@ -3333,47 +3093,47 @@
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="14"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="6"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="14"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="14"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="4"/>
       <c r="K5" s="6"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="14"/>
+      <c r="M5" s="12"/>
       <c r="N5" s="4"/>
       <c r="O5" s="6"/>
       <c r="P5" s="4"/>
-      <c r="Q5" s="14"/>
+      <c r="Q5" s="12"/>
       <c r="R5" s="4"/>
       <c r="S5" s="6"/>
       <c r="T5" s="4"/>
@@ -3383,22 +3143,22 @@
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="14"/>
+      <c r="E6" s="12"/>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="4"/>
       <c r="K6" s="6"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="14"/>
+      <c r="M6" s="12"/>
       <c r="N6" s="4"/>
       <c r="O6" s="6"/>
       <c r="P6" s="4"/>
-      <c r="Q6" s="14"/>
+      <c r="Q6" s="12"/>
       <c r="R6" s="4"/>
       <c r="S6" s="6"/>
       <c r="T6" s="4"/>
@@ -3408,22 +3168,22 @@
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="14"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="12"/>
       <c r="J7" s="4"/>
       <c r="K7" s="6"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="14"/>
+      <c r="M7" s="12"/>
       <c r="N7" s="4"/>
       <c r="O7" s="6"/>
       <c r="P7" s="4"/>
-      <c r="Q7" s="14"/>
+      <c r="Q7" s="12"/>
       <c r="R7" s="4"/>
       <c r="S7" s="6"/>
       <c r="T7" s="4"/>
@@ -3433,22 +3193,22 @@
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="6"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="4"/>
       <c r="K8" s="6"/>
       <c r="L8" s="4"/>
-      <c r="M8" s="14"/>
+      <c r="M8" s="12"/>
       <c r="N8" s="4"/>
       <c r="O8" s="6"/>
       <c r="P8" s="4"/>
-      <c r="Q8" s="14"/>
+      <c r="Q8" s="12"/>
       <c r="R8" s="4"/>
       <c r="S8" s="6"/>
       <c r="T8" s="4"/>
@@ -3458,22 +3218,22 @@
       <c r="A9" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="6"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="14"/>
+      <c r="E9" s="12"/>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="4"/>
       <c r="K9" s="6"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="14"/>
+      <c r="M9" s="12"/>
       <c r="N9" s="4"/>
       <c r="O9" s="6"/>
       <c r="P9" s="4"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="12"/>
       <c r="R9" s="4"/>
       <c r="S9" s="6"/>
       <c r="T9" s="4"/>
@@ -3483,22 +3243,22 @@
       <c r="A10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="6"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="14"/>
+      <c r="E10" s="12"/>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="4"/>
       <c r="K10" s="6"/>
       <c r="L10" s="4"/>
-      <c r="M10" s="14"/>
+      <c r="M10" s="12"/>
       <c r="N10" s="4"/>
       <c r="O10" s="6"/>
       <c r="P10" s="4"/>
-      <c r="Q10" s="14"/>
+      <c r="Q10" s="12"/>
       <c r="R10" s="4"/>
       <c r="S10" s="6"/>
       <c r="T10" s="4"/>
@@ -3508,22 +3268,22 @@
       <c r="A11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="7"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="22"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="5"/>
       <c r="G11" s="7"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="22"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="22"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="5"/>
       <c r="O11" s="7"/>
       <c r="P11" s="5"/>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="20"/>
       <c r="R11" s="5"/>
       <c r="S11" s="7"/>
       <c r="T11" s="5"/>
@@ -3533,30 +3293,30 @@
       <c r="A12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="11">
         <v>0.1046</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="4"/>
-      <c r="E12" s="14"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4">
         <v>-4.1700000000000001E-2</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="4">
         <v>0.16209999999999999</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="14"/>
+      <c r="M12" s="12"/>
       <c r="N12" s="4">
         <v>0.16539999999999999</v>
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="4"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="12"/>
       <c r="R12" s="4">
         <v>-5.45E-2</v>
       </c>
@@ -3566,27 +3326,27 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:U1"/>
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="N2:O2"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="R2:S2"/>
     <mergeCell ref="T2:U2"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:U12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
